--- a/biology/Biologie cellulaire et moléculaire/Kinétochore/Kinétochore.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Kinétochore/Kinétochore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kin%C3%A9tochore</t>
+          <t>Kinétochore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kinétochore est un assemblage supramoléculaire de protéines au niveau des régions centromériques des chromosomes mitotiques. Il existe deux kinétochores par centromère pouvant chez les mammifères interagir avec 20 à 40 microtubules.
 L'attachement des microtubules sur les kinétochores se fait à la partie positive des microtubules kinétochoriens au cours de la prométaphase et permet le placement des chromosomes sur le plan équatorial. Il permet aussi en partie le partage des chromosomes en deux lots identiques au cours de la métaphase et de l'anaphase, mais il est associé au mécanisme des microtubules polaires. On parle d'anaphase A pour le mécanisme dû aux microtubules kinétochoriens et d'anaphase B pour le mécanisme dû aux microtubules polaires.
